--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45979.5</v>
+        <v>50560.37</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9195.9</v>
+        <v>7222.91</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38805.94</v>
+        <v>39198.33</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5948.77</v>
+        <v>7000.4</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.79</v>
+        <v>1117.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3244.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,45 +439,62 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50560.37</v>
+        <v>39198.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38825.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7222.91</v>
+        <v>7000.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5749.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39198.33</v>
+        <v>3244.12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3240.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7000.4</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -489,6 +506,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -499,6 +519,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -509,25 +532,34 @@
       <c r="B8" t="n">
         <v>1117.52</v>
       </c>
+      <c r="C8" t="n">
+        <v>1121.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3244.12</v>
+        <v>7222.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6991.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>50560.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48937.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,95 +439,127 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48937.81</v>
+        <v>38825.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39026.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6991.12</v>
+        <v>5749.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5743.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38825.95</v>
+        <v>3240.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3246.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5749.75</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3240.52</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1121.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1109.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6991.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7017.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1121.59</v>
+        <v>48937.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49125.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -506,9 +506,7 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -546,7 +544,7 @@
         <v>6991.12</v>
       </c>
       <c r="C9" t="n">
-        <v>7017.92</v>
+        <v>8187.57</v>
       </c>
     </row>
     <row r="10">

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38825.95</v>
+        <v>38941.45</v>
       </c>
       <c r="C2" t="n">
-        <v>39026.29</v>
+        <v>38723.33</v>
       </c>
       <c r="D2" t="n">
-        <v>38917.24</v>
+        <v>40202</v>
       </c>
       <c r="E2" t="n">
-        <v>38657.39</v>
+        <v>39055.7</v>
       </c>
       <c r="F2" t="n">
-        <v>38849.05</v>
+        <v>39144.78</v>
       </c>
       <c r="G2" t="n">
-        <v>38627.98</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39040.54</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38700.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38642.07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>38836.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>38942.44</v>
-      </c>
-      <c r="M2" t="n">
-        <v>38941.45</v>
+        <v>38953.09</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5749.75</v>
+        <v>6272.3</v>
       </c>
       <c r="C3" t="n">
-        <v>5743.12</v>
+        <v>6016</v>
       </c>
       <c r="D3" t="n">
-        <v>6722.06</v>
+        <v>6498.96</v>
       </c>
       <c r="E3" t="n">
-        <v>5791.58</v>
+        <v>6271.26</v>
       </c>
       <c r="F3" t="n">
-        <v>5968.12</v>
+        <v>5931.16</v>
       </c>
       <c r="G3" t="n">
-        <v>5919.05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6747.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7104.52</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7018.17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6710.41</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6910.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6272.3</v>
+        <v>6549.6</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3240.52</v>
+        <v>3245.89</v>
       </c>
       <c r="C4" t="n">
-        <v>3246.14</v>
+        <v>3241.9</v>
       </c>
       <c r="D4" t="n">
-        <v>3239.99</v>
+        <v>3336.24</v>
       </c>
       <c r="E4" t="n">
-        <v>3239.41</v>
+        <v>3244.98</v>
       </c>
       <c r="F4" t="n">
-        <v>3246.81</v>
+        <v>3244.91</v>
       </c>
       <c r="G4" t="n">
-        <v>3243.05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3243.19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3248.31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3241.34</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3246.53</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3245.17</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3245.89</v>
+        <v>3242.57</v>
       </c>
     </row>
     <row r="5">
@@ -648,24 +564,6 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -676,7 +574,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -687,24 +587,6 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,24 +614,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -758,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121.59</v>
+        <v>1010.55</v>
       </c>
       <c r="C8" t="n">
-        <v>1109.86</v>
+        <v>948.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1039.8</v>
+        <v>1047.85</v>
       </c>
       <c r="E8" t="n">
-        <v>1095.66</v>
+        <v>1024.29</v>
       </c>
       <c r="F8" t="n">
-        <v>1112</v>
+        <v>956.59</v>
       </c>
       <c r="G8" t="n">
-        <v>1069.85</v>
-      </c>
-      <c r="H8" t="n">
-        <v>989.62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>944.92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>919.6900000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>891.45</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1101.09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1010.55</v>
+        <v>1020.94</v>
       </c>
     </row>
     <row r="9">
@@ -801,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6991.12</v>
+        <v>7067.17</v>
       </c>
       <c r="C9" t="n">
-        <v>8187.57</v>
+        <v>6989.95</v>
       </c>
       <c r="D9" t="n">
-        <v>7131.3</v>
+        <v>7297.86</v>
       </c>
       <c r="E9" t="n">
-        <v>6969.15</v>
+        <v>7085.18</v>
       </c>
       <c r="F9" t="n">
-        <v>7025.14</v>
+        <v>7039.63</v>
       </c>
       <c r="G9" t="n">
-        <v>6979.99</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7145.87</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7142.58</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7117.32</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7097.85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7171.27</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7067.17</v>
+        <v>7109.46</v>
       </c>
     </row>
     <row r="10">
@@ -844,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48937.81</v>
+        <v>49470.19</v>
       </c>
       <c r="C10" t="n">
-        <v>49125.41</v>
+        <v>48929.63</v>
       </c>
       <c r="D10" t="n">
-        <v>49919.09</v>
+        <v>51085.05</v>
       </c>
       <c r="E10" t="n">
-        <v>48784.04</v>
+        <v>49596.23</v>
       </c>
       <c r="F10" t="n">
-        <v>49175.98</v>
+        <v>49277.44</v>
       </c>
       <c r="G10" t="n">
-        <v>48859.93</v>
-      </c>
-      <c r="H10" t="n">
-        <v>50021.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49998.05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>49821.27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>49684.94</v>
-      </c>
-      <c r="L10" t="n">
-        <v>50198.92</v>
-      </c>
-      <c r="M10" t="n">
-        <v>49470.19</v>
+        <v>49766.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>38825.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39026.29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38917.24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38657.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38849.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38627.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>39040.54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38700.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38642.07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38836.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>38942.44</v>
+      </c>
+      <c r="M2" t="n">
         <v>38941.45</v>
-      </c>
-      <c r="C2" t="n">
-        <v>38723.33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40202</v>
-      </c>
-      <c r="E2" t="n">
-        <v>39055.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39144.78</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38953.09</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5749.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5743.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6722.06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5791.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5968.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5919.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6747.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7104.52</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7018.17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6710.41</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6910.22</v>
+      </c>
+      <c r="M3" t="n">
         <v>6272.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6016</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6498.96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6271.26</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5931.16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6549.6</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3240.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3246.14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3239.99</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3239.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3246.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3243.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3243.19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3248.31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3241.34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3246.53</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3245.17</v>
+      </c>
+      <c r="M4" t="n">
         <v>3245.89</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3241.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3336.24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3244.98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3244.91</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3242.57</v>
       </c>
     </row>
     <row r="5">
@@ -564,6 +648,24 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -574,9 +676,7 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -587,6 +687,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -614,6 +732,24 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -622,22 +758,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1121.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1109.86</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1039.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1095.66</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1069.85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>989.62</v>
+      </c>
+      <c r="I8" t="n">
+        <v>944.92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>919.6900000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>891.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1101.09</v>
+      </c>
+      <c r="M8" t="n">
         <v>1010.55</v>
-      </c>
-      <c r="C8" t="n">
-        <v>948.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1047.85</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1024.29</v>
-      </c>
-      <c r="F8" t="n">
-        <v>956.59</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1020.94</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +801,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6991.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8187.57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7131.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6969.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7025.14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6979.99</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7145.87</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7142.58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7117.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7097.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7171.27</v>
+      </c>
+      <c r="M9" t="n">
         <v>7067.17</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6989.95</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7297.86</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7085.18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7039.63</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7109.46</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +844,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>48937.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49125.41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49919.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48784.04</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49175.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48859.93</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50021.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49998.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49821.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49684.94</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50198.92</v>
+      </c>
+      <c r="M10" t="n">
         <v>49470.19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>48929.63</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51085.05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>49596.23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>49277.44</v>
-      </c>
-      <c r="G10" t="n">
-        <v>49766.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38825.95</v>
+        <v>38941.45</v>
       </c>
       <c r="C2" t="n">
-        <v>39026.29</v>
+        <v>38723.33</v>
       </c>
       <c r="D2" t="n">
-        <v>38917.24</v>
+        <v>40202</v>
       </c>
       <c r="E2" t="n">
-        <v>38657.39</v>
+        <v>39055.7</v>
       </c>
       <c r="F2" t="n">
-        <v>38849.05</v>
+        <v>39144.78</v>
       </c>
       <c r="G2" t="n">
-        <v>38627.98</v>
+        <v>38953.09</v>
       </c>
       <c r="H2" t="n">
-        <v>39040.54</v>
+        <v>38772.9</v>
       </c>
       <c r="I2" t="n">
-        <v>38700.3</v>
+        <v>39064.56</v>
       </c>
       <c r="J2" t="n">
-        <v>38642.07</v>
+        <v>38863.53</v>
       </c>
       <c r="K2" t="n">
-        <v>38836.55</v>
+        <v>38874.94</v>
       </c>
       <c r="L2" t="n">
-        <v>38942.44</v>
+        <v>38983.45</v>
       </c>
       <c r="M2" t="n">
-        <v>38941.45</v>
+        <v>38674.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>38851.23</v>
+      </c>
+      <c r="O2" t="n">
+        <v>38763.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>38794.42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>39025.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>39176.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>39022.83</v>
+      </c>
+      <c r="T2" t="n">
+        <v>38852.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>38540.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>38945.96</v>
+      </c>
+      <c r="W2" t="n">
+        <v>38824.36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>38706.64</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>38984.76</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>39047.38</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>38856.32</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5749.75</v>
+        <v>6272.3</v>
       </c>
       <c r="C3" t="n">
-        <v>5743.12</v>
+        <v>6016</v>
       </c>
       <c r="D3" t="n">
-        <v>6722.06</v>
+        <v>6498.96</v>
       </c>
       <c r="E3" t="n">
-        <v>5791.58</v>
+        <v>6271.26</v>
       </c>
       <c r="F3" t="n">
-        <v>5968.12</v>
+        <v>5931.16</v>
       </c>
       <c r="G3" t="n">
-        <v>5919.05</v>
+        <v>6549.6</v>
       </c>
       <c r="H3" t="n">
-        <v>6747.75</v>
+        <v>6369.77</v>
       </c>
       <c r="I3" t="n">
-        <v>7104.52</v>
+        <v>6001.19</v>
       </c>
       <c r="J3" t="n">
-        <v>7018.17</v>
+        <v>6410.81</v>
       </c>
       <c r="K3" t="n">
-        <v>6710.41</v>
+        <v>6369.55</v>
       </c>
       <c r="L3" t="n">
-        <v>6910.22</v>
+        <v>6127.03</v>
       </c>
       <c r="M3" t="n">
-        <v>6272.3</v>
+        <v>6294.64</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6831.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6074.07</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6148.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6414.08</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5830.96</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6555.15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6198.48</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6257.78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6810.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6491.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6443.82</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6821.99</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6733.26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6656.37</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3240.52</v>
+        <v>3245.89</v>
       </c>
       <c r="C4" t="n">
-        <v>3246.14</v>
+        <v>3241.9</v>
       </c>
       <c r="D4" t="n">
-        <v>3239.99</v>
+        <v>3336.24</v>
       </c>
       <c r="E4" t="n">
-        <v>3239.41</v>
+        <v>3244.98</v>
       </c>
       <c r="F4" t="n">
-        <v>3246.81</v>
+        <v>3244.91</v>
       </c>
       <c r="G4" t="n">
-        <v>3243.05</v>
+        <v>3242.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3243.19</v>
+        <v>3244.71</v>
       </c>
       <c r="I4" t="n">
-        <v>3248.31</v>
+        <v>3245.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3241.34</v>
+        <v>3240.38</v>
       </c>
       <c r="K4" t="n">
-        <v>3246.53</v>
+        <v>3246.9</v>
       </c>
       <c r="L4" t="n">
-        <v>3245.17</v>
+        <v>3240.89</v>
       </c>
       <c r="M4" t="n">
-        <v>3245.89</v>
+        <v>3243.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3242.35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3240.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3247.55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3243.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3243.09</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3243.95</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3223.11</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3241.43</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3242.84</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3239.92</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3244.82</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3241.9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3240.34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3242.91</v>
       </c>
     </row>
     <row r="5">
@@ -666,6 +862,48 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -676,7 +914,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -705,6 +945,48 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,6 +1032,48 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -758,41 +1082,65 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121.59</v>
+        <v>1010.55</v>
       </c>
       <c r="C8" t="n">
-        <v>1109.86</v>
+        <v>948.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1039.8</v>
+        <v>1047.85</v>
       </c>
       <c r="E8" t="n">
-        <v>1095.66</v>
+        <v>1024.29</v>
       </c>
       <c r="F8" t="n">
-        <v>1112</v>
+        <v>956.59</v>
       </c>
       <c r="G8" t="n">
-        <v>1069.85</v>
+        <v>1020.94</v>
       </c>
       <c r="H8" t="n">
-        <v>989.62</v>
+        <v>1048.64</v>
       </c>
       <c r="I8" t="n">
-        <v>944.92</v>
+        <v>837.91</v>
       </c>
       <c r="J8" t="n">
-        <v>919.6900000000001</v>
+        <v>899.24</v>
       </c>
       <c r="K8" t="n">
-        <v>891.45</v>
+        <v>913.64</v>
       </c>
       <c r="L8" t="n">
-        <v>1101.09</v>
+        <v>872.05</v>
       </c>
       <c r="M8" t="n">
-        <v>1010.55</v>
-      </c>
+        <v>906.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1033.02</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1102.26</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1150.45</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>802.4400000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>879.13</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -801,40 +1149,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6991.12</v>
+        <v>7067.17</v>
       </c>
       <c r="C9" t="n">
-        <v>8187.57</v>
+        <v>6989.95</v>
       </c>
       <c r="D9" t="n">
-        <v>7131.3</v>
+        <v>7297.86</v>
       </c>
       <c r="E9" t="n">
-        <v>6969.15</v>
+        <v>7085.18</v>
       </c>
       <c r="F9" t="n">
-        <v>7025.14</v>
+        <v>7039.63</v>
       </c>
       <c r="G9" t="n">
-        <v>6979.99</v>
+        <v>7109.46</v>
       </c>
       <c r="H9" t="n">
-        <v>7145.87</v>
+        <v>7062.29</v>
       </c>
       <c r="I9" t="n">
-        <v>7142.58</v>
+        <v>7021.34</v>
       </c>
       <c r="J9" t="n">
-        <v>7117.32</v>
+        <v>7059.14</v>
       </c>
       <c r="K9" t="n">
-        <v>7097.85</v>
+        <v>7057.86</v>
       </c>
       <c r="L9" t="n">
-        <v>7171.27</v>
+        <v>7031.92</v>
       </c>
       <c r="M9" t="n">
-        <v>7067.17</v>
+        <v>7016.89</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7136.87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7025.69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7048.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7069.27</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7018.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8136.99</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8045.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8006.54</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8166.47</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8092.59</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8065.88</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8174.78</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8170.16</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8125.93</v>
       </c>
     </row>
     <row r="10">
@@ -844,40 +1234,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48937.81</v>
+        <v>49470.19</v>
       </c>
       <c r="C10" t="n">
-        <v>49125.41</v>
+        <v>48929.63</v>
       </c>
       <c r="D10" t="n">
-        <v>49919.09</v>
+        <v>51085.05</v>
       </c>
       <c r="E10" t="n">
-        <v>48784.04</v>
+        <v>49596.23</v>
       </c>
       <c r="F10" t="n">
-        <v>49175.98</v>
+        <v>49277.44</v>
       </c>
       <c r="G10" t="n">
-        <v>48859.93</v>
+        <v>49766.2</v>
       </c>
       <c r="H10" t="n">
-        <v>50021.1</v>
+        <v>49436.02</v>
       </c>
       <c r="I10" t="n">
-        <v>49998.05</v>
+        <v>49149.41</v>
       </c>
       <c r="J10" t="n">
-        <v>49821.27</v>
+        <v>49413.96</v>
       </c>
       <c r="K10" t="n">
-        <v>49684.94</v>
+        <v>49405.03</v>
       </c>
       <c r="L10" t="n">
-        <v>50198.92</v>
+        <v>49223.42</v>
       </c>
       <c r="M10" t="n">
-        <v>49470.19</v>
+        <v>49118.24</v>
+      </c>
+      <c r="N10" t="n">
+        <v>49958.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>49179.83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>49341.04</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>49484.92</v>
+      </c>
+      <c r="R10" t="n">
+        <v>49129.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>48821.93</v>
+      </c>
+      <c r="T10" t="n">
+        <v>48273.6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>48039.26</v>
+      </c>
+      <c r="V10" t="n">
+        <v>48998.82</v>
+      </c>
+      <c r="W10" t="n">
+        <v>48555.53</v>
+      </c>
+      <c r="X10" t="n">
+        <v>48395.28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>49048.65</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>49020.98</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>48755.6</v>
       </c>
     </row>
   </sheetData>
